--- a/Cronograma/Itinerario_Cajas_KarlaV3.xlsx
+++ b/Cronograma/Itinerario_Cajas_KarlaV3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karly\OneDrive\Documentos\VII SEMESTRE\Practicas\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80775D2-E769-4DFB-A1D2-DAE7FA105CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074A4F9A-E005-406B-91DA-49A771B1992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,58 +360,10 @@
     <t>15:00-19:00</t>
   </si>
   <si>
-    <r>
-      <t>Automatizar procesos adicionales dentro del portal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, como la navegación entre diferentes páginas del sistema o el manejo de errores específicos que puedan surgir durante la navegación.</t>
-    </r>
-  </si>
-  <si>
     <t>Realizar pruebas de usabilidad para asegurar que la interfaz gráfica sea intuitiva y fácil de usar, mientras que las funciones de Selenium se ejecutan correctamente al hacer clic en los elementos de la GUI.</t>
   </si>
   <si>
     <t>Desarrollar pruebas para asegurarte de que el sistema funciona correctamente al manejar diferentes datos de varias empresas, asegurando la integridad de los datos y el rendimiento del sistema</t>
-  </si>
-  <si>
-    <r>
-      <t>Agregar validaciones</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para asegurar que los datos recibidos a través de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>@Input()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sean correctos y estén bien formateados.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -629,6 +581,32 @@
   </si>
   <si>
     <t>15:00-18:00</t>
+  </si>
+  <si>
+    <t>Automatizar procesos adicionales dC35:C40e diferentes páginas del sistema o el manejo de errores específicos que puedan surgir durante la navegación.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agregar validaciones para asegurar que los datos recibidos a través de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>@Input()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sean correctos y estén bien formateados.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -987,28 +965,10 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1020,10 +980,34 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,12 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:C96"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1374,15 +1352,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1455,7 +1433,7 @@
       <c r="A9" s="6">
         <v>45761</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1481,7 +1459,7 @@
       <c r="A10" s="6">
         <v>45762</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1505,7 +1483,7 @@
       <c r="A11" s="6">
         <v>45763</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1507,7 @@
       <c r="A12" s="6">
         <v>45764</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1562,10 +1540,10 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58">
+      <c r="A14" s="66">
         <v>45768</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="69" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -1586,8 +1564,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="34" t="s">
         <v>52</v>
       </c>
@@ -1606,8 +1584,8 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="34" t="s">
         <v>53</v>
       </c>
@@ -1626,8 +1604,8 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" s="35" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="60"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="34" t="s">
         <v>54</v>
       </c>
@@ -1646,10 +1624,10 @@
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="64">
+      <c r="A18" s="62">
         <v>45769</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="61" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -1670,8 +1648,8 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="64"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="14" t="s">
         <v>60</v>
       </c>
@@ -1690,10 +1668,10 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="64">
+      <c r="A20" s="62">
         <v>45770</v>
       </c>
-      <c r="B20" s="67"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="14" t="s">
         <v>61</v>
       </c>
@@ -1712,8 +1690,8 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="64"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="14" t="s">
         <v>30</v>
       </c>
@@ -1732,10 +1710,10 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="51.75" x14ac:dyDescent="0.35">
-      <c r="A22" s="68">
+      <c r="A22" s="63">
         <v>45771</v>
       </c>
-      <c r="B22" s="67"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="14" t="s">
         <v>62</v>
       </c>
@@ -1754,8 +1732,8 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="14" t="s">
         <v>31</v>
       </c>
@@ -1774,10 +1752,10 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="51.75" x14ac:dyDescent="0.35">
-      <c r="A24" s="68">
+      <c r="A24" s="63">
         <v>45772</v>
       </c>
-      <c r="B24" s="67"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="14" t="s">
         <v>63</v>
       </c>
@@ -1796,8 +1774,8 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="69"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1816,10 +1794,10 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="51.75" x14ac:dyDescent="0.35">
-      <c r="A26" s="68">
+      <c r="A26" s="63">
         <v>45775</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="14" t="s">
         <v>64</v>
       </c>
@@ -1838,8 +1816,8 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="69"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="14" t="s">
         <v>33</v>
       </c>
@@ -1858,10 +1836,10 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="68">
+      <c r="A28" s="63">
         <v>45776</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="14" t="s">
         <v>69</v>
       </c>
@@ -1880,8 +1858,8 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="69"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="14" t="s">
         <v>34</v>
       </c>
@@ -1900,10 +1878,10 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="68">
+      <c r="A30" s="63">
         <v>45777</v>
       </c>
-      <c r="B30" s="67"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="14" t="s">
         <v>68</v>
       </c>
@@ -1922,8 +1900,8 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="69"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="14" t="s">
         <v>35</v>
       </c>
@@ -1942,10 +1920,10 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="75">
+      <c r="A32" s="77">
         <v>45778</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="78" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="19" t="s">
@@ -1966,10 +1944,10 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>66</v>
@@ -1998,14 +1976,14 @@
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="70">
+      <c r="A35" s="72">
         <v>45782</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="74" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>70</v>
@@ -2022,8 +2000,8 @@
       <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="71"/>
-      <c r="B36" s="73"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="19" t="s">
         <v>36</v>
       </c>
@@ -2042,12 +2020,12 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="70">
+      <c r="A37" s="72">
         <v>45783</v>
       </c>
-      <c r="B37" s="73"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>70</v>
@@ -2064,8 +2042,8 @@
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="71"/>
-      <c r="B38" s="73"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="21" t="s">
         <v>38</v>
       </c>
@@ -2087,12 +2065,12 @@
       <c r="A39" s="36">
         <v>45784</v>
       </c>
-      <c r="B39" s="74"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" s="18">
         <v>5</v>
@@ -2106,14 +2084,14 @@
       <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="77">
+      <c r="A40" s="57">
         <v>45785</v>
       </c>
       <c r="B40" s="79" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D40" s="42" t="s">
         <v>70</v>
@@ -2130,7 +2108,7 @@
       <c r="H40" s="53"/>
     </row>
     <row r="41" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="78"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="80"/>
       <c r="C41" s="41" t="s">
         <v>46</v>
@@ -2150,7 +2128,7 @@
       <c r="H41" s="53"/>
     </row>
     <row r="42" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="77">
+      <c r="A42" s="57">
         <v>45786</v>
       </c>
       <c r="B42" s="80"/>
@@ -2172,10 +2150,10 @@
       <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="78"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="80"/>
       <c r="C43" s="41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="42" t="s">
         <v>66</v>
@@ -2200,7 +2178,7 @@
         <v>44</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E44" s="42">
         <v>5</v>
@@ -2222,7 +2200,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E45" s="42">
         <v>5</v>
@@ -2244,7 +2222,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="42">
         <v>5</v>
@@ -2266,7 +2244,7 @@
         <v>48</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E47" s="42">
         <v>5</v>
@@ -2288,7 +2266,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E48" s="42">
         <v>5</v>
@@ -2302,14 +2280,14 @@
       <c r="H48" s="53"/>
     </row>
     <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="75">
+      <c r="A49" s="77">
         <v>45796</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="74" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>70</v>
@@ -2326,8 +2304,8 @@
       <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:8" ht="51.75" x14ac:dyDescent="0.35">
-      <c r="A50" s="75"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="21" t="s">
         <v>50</v>
       </c>
@@ -2353,10 +2331,10 @@
         <v>42</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E51" s="42">
         <v>5</v>
@@ -2375,10 +2353,10 @@
       </c>
       <c r="B52" s="83"/>
       <c r="C52" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E52" s="42">
         <v>5</v>
@@ -2397,10 +2375,10 @@
       </c>
       <c r="B53" s="84"/>
       <c r="C53" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E53" s="42">
         <v>5</v>
@@ -2429,11 +2407,11 @@
       <c r="A55" s="56">
         <v>45803</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D55" s="42" t="s">
         <v>55</v>
@@ -2451,9 +2429,9 @@
     </row>
     <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D56" s="42" t="s">
         <v>67</v>
@@ -2473,9 +2451,9 @@
       <c r="A57" s="56">
         <v>45804</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" s="42" t="s">
         <v>55</v>
@@ -2493,9 +2471,9 @@
     </row>
     <row r="58" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D58" s="42" t="s">
         <v>67</v>
@@ -2515,12 +2493,12 @@
       <c r="A59" s="40">
         <v>45805</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E59" s="42">
         <v>5</v>
@@ -2537,12 +2515,12 @@
       <c r="A60" s="40">
         <v>45806</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E60" s="42">
         <v>5</v>
@@ -2559,12 +2537,12 @@
       <c r="A61" s="40">
         <v>45807</v>
       </c>
-      <c r="B61" s="57"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E61" s="42">
         <v>5</v>
@@ -2581,12 +2559,12 @@
       <c r="A62" s="40">
         <v>45810</v>
       </c>
-      <c r="B62" s="57"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E62" s="42">
         <v>5</v>
@@ -2603,12 +2581,12 @@
       <c r="A63" s="40">
         <v>45811</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E63" s="42">
         <v>5</v>
@@ -2625,9 +2603,9 @@
       <c r="A64" s="56">
         <v>45812</v>
       </c>
-      <c r="B64" s="57"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D64" s="42" t="s">
         <v>55</v>
@@ -2645,9 +2623,9 @@
     </row>
     <row r="65" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="56"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>67</v>
@@ -2667,9 +2645,9 @@
       <c r="A66" s="56">
         <v>45813</v>
       </c>
-      <c r="B66" s="57"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D66" s="42" t="s">
         <v>65</v>
@@ -2687,9 +2665,9 @@
     </row>
     <row r="67" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="56"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D67" s="42" t="s">
         <v>66</v>
@@ -2709,12 +2687,12 @@
       <c r="A68" s="56">
         <v>45814</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E68" s="42">
         <v>4</v>
@@ -2729,9 +2707,9 @@
     </row>
     <row r="69" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56"/>
-      <c r="B69" s="57"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>58</v>
@@ -2751,9 +2729,9 @@
       <c r="A70" s="56">
         <v>45817</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D70" s="42" t="s">
         <v>70</v>
@@ -2771,12 +2749,12 @@
     </row>
     <row r="71" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E71" s="42">
         <v>2</v>
@@ -2791,9 +2769,9 @@
     </row>
     <row r="72" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56"/>
-      <c r="B72" s="57"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D72" s="42" t="s">
         <v>66</v>
@@ -2813,9 +2791,9 @@
       <c r="A73" s="56">
         <v>45818</v>
       </c>
-      <c r="B73" s="57"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D73" s="42" t="s">
         <v>70</v>
@@ -2833,12 +2811,12 @@
     </row>
     <row r="74" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56"/>
-      <c r="B74" s="57"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E74" s="42">
         <v>2</v>
@@ -2853,9 +2831,9 @@
     </row>
     <row r="75" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D75" s="42" t="s">
         <v>66</v>
@@ -2875,12 +2853,12 @@
       <c r="A76" s="40">
         <v>45819</v>
       </c>
-      <c r="B76" s="57"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E76" s="42">
         <v>5</v>
@@ -2897,12 +2875,12 @@
       <c r="A77" s="40">
         <v>45820</v>
       </c>
-      <c r="B77" s="57"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E77" s="42">
         <v>5</v>
@@ -2919,9 +2897,9 @@
       <c r="A78" s="56">
         <v>45821</v>
       </c>
-      <c r="B78" s="57"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D78" s="42" t="s">
         <v>65</v>
@@ -2939,9 +2917,9 @@
     </row>
     <row r="79" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D79" s="42" t="s">
         <v>66</v>
@@ -2961,9 +2939,9 @@
       <c r="A80" s="56">
         <v>45824</v>
       </c>
-      <c r="B80" s="57"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D80" s="42" t="s">
         <v>70</v>
@@ -2981,9 +2959,9 @@
     </row>
     <row r="81" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="56"/>
-      <c r="B81" s="57"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D81" s="42" t="s">
         <v>71</v>
@@ -3003,9 +2981,9 @@
       <c r="A82" s="56">
         <v>45825</v>
       </c>
-      <c r="B82" s="57"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D82" s="42" t="s">
         <v>55</v>
@@ -3023,9 +3001,9 @@
     </row>
     <row r="83" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="56"/>
-      <c r="B83" s="57"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>67</v>
@@ -3042,10 +3020,12 @@
       <c r="H83" s="53"/>
     </row>
     <row r="84" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="40"/>
-      <c r="B84" s="57"/>
+      <c r="A84" s="57">
+        <v>45826</v>
+      </c>
+      <c r="B84" s="65"/>
       <c r="C84" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D84" s="42" t="s">
         <v>65</v>
@@ -3062,12 +3042,10 @@
       <c r="H84" s="53"/>
     </row>
     <row r="85" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="40">
-        <v>45826</v>
-      </c>
-      <c r="B85" s="57"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D85" s="42" t="s">
         <v>66</v>
@@ -3087,12 +3065,12 @@
       <c r="A86" s="56">
         <v>45827</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E86" s="42">
         <v>4</v>
@@ -3107,9 +3085,9 @@
     </row>
     <row r="87" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="56"/>
-      <c r="B87" s="57"/>
+      <c r="B87" s="65"/>
       <c r="C87" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D87" s="42" t="s">
         <v>58</v>
@@ -3129,9 +3107,9 @@
       <c r="A88" s="56">
         <v>45828</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="65"/>
       <c r="C88" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D88" s="42" t="s">
         <v>65</v>
@@ -3149,9 +3127,9 @@
     </row>
     <row r="89" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="56"/>
-      <c r="B89" s="57"/>
+      <c r="B89" s="65"/>
       <c r="C89" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D89" s="42" t="s">
         <v>66</v>
@@ -3171,9 +3149,9 @@
       <c r="A90" s="56">
         <v>45831</v>
       </c>
-      <c r="B90" s="57"/>
+      <c r="B90" s="65"/>
       <c r="C90" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>70</v>
@@ -3191,12 +3169,12 @@
     </row>
     <row r="91" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="56"/>
-      <c r="B91" s="57"/>
+      <c r="B91" s="65"/>
       <c r="C91" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D91" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" s="42">
         <v>3</v>
@@ -3211,9 +3189,9 @@
     </row>
     <row r="92" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
+      <c r="B92" s="65"/>
       <c r="C92" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D92" s="42" t="s">
         <v>58</v>
@@ -3233,12 +3211,12 @@
       <c r="A93" s="40">
         <v>45832</v>
       </c>
-      <c r="B93" s="57"/>
+      <c r="B93" s="65"/>
       <c r="C93" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E93" s="42">
         <v>5</v>
@@ -3255,9 +3233,9 @@
       <c r="A94" s="56">
         <v>45833</v>
       </c>
-      <c r="B94" s="57"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D94" s="42" t="s">
         <v>55</v>
@@ -3275,9 +3253,9 @@
     </row>
     <row r="95" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="56"/>
-      <c r="B95" s="57"/>
+      <c r="B95" s="65"/>
       <c r="C95" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D95" s="42" t="s">
         <v>56</v>
@@ -3295,9 +3273,9 @@
     </row>
     <row r="96" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="56"/>
-      <c r="B96" s="57"/>
+      <c r="B96" s="65"/>
       <c r="C96" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" s="42" t="s">
         <v>66</v>
@@ -3332,29 +3310,7 @@
     <row r="102" spans="5:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="5:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B18:B31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
+  <mergeCells count="39">
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="B55:B96"/>
     <mergeCell ref="A14:A17"/>
@@ -3371,6 +3327,29 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
